--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1217227.574893933</v>
+        <v>-1219786.845461488</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65.01426080620115</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>396.7942796311403</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.95340549104682</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>129.393034884834</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>237.0864338226038</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>210.2289644284442</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.51915625033989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>6.793318715893933</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>61.51390569213391</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>80.95702428743211</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.2071260583533</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>21.74033372995822</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>160.1852147668648</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>10.63412424768347</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>120.1447214650581</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>130.7812597870356</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>65.38324202937339</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.1249649038642</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>5.421623586789047</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>124.0270735093607</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703272</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>181.7798872146016</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0177171766843</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>243.1373908222621</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9.14614278817956</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>77.73359659137193</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652637</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545291</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1218.990171563758</v>
+        <v>1252.821356357767</v>
       </c>
       <c r="C2" t="n">
-        <v>1218.990171563758</v>
+        <v>883.8588394173551</v>
       </c>
       <c r="D2" t="n">
-        <v>1218.990171563758</v>
+        <v>818.1878689060406</v>
       </c>
       <c r="E2" t="n">
-        <v>1218.990171563758</v>
+        <v>818.1878689060406</v>
       </c>
       <c r="F2" t="n">
-        <v>808.0042667741508</v>
+        <v>407.201964116433</v>
       </c>
       <c r="G2" t="n">
-        <v>407.2019641164329</v>
+        <v>407.201964116433</v>
       </c>
       <c r="H2" t="n">
         <v>109.1574891935902</v>
@@ -4328,52 +4328,52 @@
         <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725632</v>
+        <v>250.5613272725623</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183949</v>
+        <v>578.770220618394</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887446</v>
+        <v>1022.844136887444</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064183</v>
+        <v>1548.631370064181</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746181</v>
+        <v>2087.540198746179</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767916</v>
+        <v>2583.081262767915</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303805</v>
+        <v>2971.513095303806</v>
       </c>
       <c r="Q2" t="n">
         <v>3215.036478301003</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007347</v>
+        <v>3159.966809007348</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077313</v>
+        <v>2953.792066077314</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208342</v>
+        <v>2700.257989208343</v>
       </c>
       <c r="V2" t="n">
-        <v>2369.195101864771</v>
+        <v>2369.195101864772</v>
       </c>
       <c r="W2" t="n">
-        <v>2369.195101864771</v>
+        <v>2016.426446594658</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.729343603692</v>
+        <v>1642.960688333578</v>
       </c>
       <c r="Y2" t="n">
-        <v>1605.59001162788</v>
+        <v>1252.821356357767</v>
       </c>
     </row>
     <row r="3">
@@ -4425,7 +4425,7 @@
         <v>2066.929778176383</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.923010208138</v>
+        <v>2400.597029664691</v>
       </c>
       <c r="Q3" t="n">
         <v>2555.226205362918</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2288.299459771109</v>
+        <v>458.161433012705</v>
       </c>
       <c r="C4" t="n">
-        <v>2119.363276843203</v>
+        <v>458.1614330127049</v>
       </c>
       <c r="D4" t="n">
-        <v>1969.246637430866</v>
+        <v>458.1614330127049</v>
       </c>
       <c r="E4" t="n">
-        <v>1821.333543848473</v>
+        <v>310.2483394303119</v>
       </c>
       <c r="F4" t="n">
-        <v>1674.443596350563</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="G4" t="n">
-        <v>1674.443596350563</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440985</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621746</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726845</v>
+        <v>109.1495242182615</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248736</v>
+        <v>310.8381027401521</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412496</v>
+        <v>624.4564789039122</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630627</v>
+        <v>965.5122071220435</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350619</v>
+        <v>1303.893008842036</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744368</v>
+        <v>1600.426152235784</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372345</v>
+        <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658117</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="R4" t="n">
-        <v>3271.282955658117</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="S4" t="n">
-        <v>3271.282955658117</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="T4" t="n">
-        <v>3049.430089880103</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="U4" t="n">
-        <v>2918.730054642896</v>
+        <v>1617.490444206911</v>
       </c>
       <c r="V4" t="n">
-        <v>2918.730054642896</v>
+        <v>1378.009197921453</v>
       </c>
       <c r="W4" t="n">
-        <v>2918.730054642896</v>
+        <v>1088.592027884492</v>
       </c>
       <c r="X4" t="n">
-        <v>2690.740503744879</v>
+        <v>860.6024769864748</v>
       </c>
       <c r="Y4" t="n">
-        <v>2469.947924601349</v>
+        <v>639.8098978429447</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1848.950422814785</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1479.987905874374</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1121.722207267623</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>735.9339546693791</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>2235.550262878907</v>
       </c>
     </row>
     <row r="6">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>941.4970410294717</v>
+        <v>634.7363945304596</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.706790209962</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.706790209962</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>1162.289620173002</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.289620173002</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="Y7" t="n">
-        <v>941.4970410294717</v>
+        <v>816.3848593606994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3243.831049601663</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3037.853301985886</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3037.853301985886</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2706.790414642315</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2354.0217593722</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.556001111121</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y8" t="n">
-        <v>1590.416669135309</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.710820256795</v>
+        <v>627.5770176220484</v>
       </c>
       <c r="C10" t="n">
-        <v>333.710820256795</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>333.710820256795</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>185.7977266744019</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>185.7977266744019</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1030.018061595818</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>1030.018061595818</v>
       </c>
       <c r="Y10" t="n">
-        <v>333.710820256795</v>
+        <v>809.2254824522881</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206034</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926965</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803609</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979679</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2253.36670959104</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1964.291482935238</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.606994729351</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692391</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794373</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508432</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5267,46 +5267,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,13 +5367,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>931.4710609784065</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>762.5348780504996</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>612.4182386381639</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>464.5051450557708</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,31 +5449,31 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1561.901655850194</v>
       </c>
       <c r="X16" t="n">
         <v>1333.912104952176</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>768.5380889459584</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>599.6019060180515</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>449.4852666057158</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>301.5721730233226</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>301.5721730233226</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>301.5721730233226</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>159.8603418655208</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>950.1865537761981</v>
       </c>
     </row>
     <row r="20">
@@ -5744,22 +5744,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171308</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892239</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768881</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>266.489149794495</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>266.489149794495</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>99.29305050937495</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2321.683211348583</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2102.081746371524</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1813.006519715722</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1558.322031509835</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.896109690901</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473705</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6075,13 +6075,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400718</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,10 +6169,10 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
         <v>1977.461080510509</v>
@@ -6184,13 +6184,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138418</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703115</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400699</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400699</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611857</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138397</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703096</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.18258121309</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6838,31 +6838,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,13 +7117,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,19 +7351,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
         <v>782.551295565682</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
@@ -7792,25 +7792,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500661981</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.95355500661995</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>1.622913276780281</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>289.6687808144818</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.17199778955777</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>156.8198933783627</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>15.05120950122421</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671011936</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>206.7713260796048</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>166.039752924186</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238253</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>94.92839560200153</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>15.88259428919214</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.45968844823062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.8730892594348</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>56.9992124922839</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>104.7431111219894</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>38.59775584152804</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>9.000252501565882</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300328</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>208.7894017452191</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-5.755396159656812e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1241877.555897481</v>
+        <v>1241877.555897482</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1241877.555897481</v>
+        <v>1241877.555897482</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194639</v>
@@ -26320,7 +26320,7 @@
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302514</v>
@@ -26332,16 +26332,16 @@
         <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="J2" t="n">
         <v>181607.9849302514</v>
-      </c>
-      <c r="J2" t="n">
-        <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074572</v>
+        <v>14479.05232074569</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>213977.8894125529</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022697</v>
+        <v>3495.241841022668</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12350.057874056</v>
+        <v>12350.05787405599</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
@@ -26430,7 +26430,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26439,25 +26439,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989934</v>
+        <v>19767.83547989932</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989934</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="O4" t="n">
         <v>19767.83547989928</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989929</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1280404.304053485</v>
+        <v>-1280764.387069203</v>
       </c>
       <c r="C6" t="n">
         <v>-28642.60565083224</v>
@@ -26528,40 +26528,40 @@
         <v>-14163.55333008659</v>
       </c>
       <c r="E6" t="n">
-        <v>-256703.9829178169</v>
+        <v>-256738.7208432524</v>
       </c>
       <c r="F6" t="n">
-        <v>68708.47888953844</v>
+        <v>68673.74096410279</v>
       </c>
       <c r="G6" t="n">
-        <v>68708.47888953847</v>
+        <v>68673.74096410272</v>
       </c>
       <c r="H6" t="n">
-        <v>68708.4788895384</v>
+        <v>68673.7409641027</v>
       </c>
       <c r="I6" t="n">
-        <v>68708.47888953846</v>
+        <v>68673.74096410256</v>
       </c>
       <c r="J6" t="n">
-        <v>-145269.4105230145</v>
+        <v>-145304.1484484502</v>
       </c>
       <c r="K6" t="n">
-        <v>65213.23704851569</v>
+        <v>65178.49912308005</v>
       </c>
       <c r="L6" t="n">
-        <v>42374.7288920172</v>
+        <v>42374.7288920171</v>
       </c>
       <c r="M6" t="n">
-        <v>-23252.58104986305</v>
+        <v>-23252.58104986293</v>
       </c>
       <c r="N6" t="n">
-        <v>61802.44688564893</v>
+        <v>61802.44688564897</v>
       </c>
       <c r="O6" t="n">
-        <v>61802.44688564894</v>
+        <v>61802.44688564906</v>
       </c>
       <c r="P6" t="n">
-        <v>61802.44688564888</v>
+        <v>61802.44688564897</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26796,13 +26796,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776331</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>196.6470813132672</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.7187824057137</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>160.4535023827339</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>224.697932513479</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.23073750074373</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.5239746201157</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>144.28547452907</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>126.3377835697262</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.316046731769171e-15</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.304053244491418e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.667851125200589e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906011</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34793,10 +34793,10 @@
         <v>409.4409041150109</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>337.0376277659686</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1446415704849</v>
+        <v>156.1910865638649</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36443,16 +36443,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762708</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
